--- a/model/CNN_100iter_loss_without_lr_scheduler.xlsx
+++ b/model/CNN_100iter_loss_without_lr_scheduler.xlsx
@@ -5,27 +5,34 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZJUSO\Documents\CaptainCandy\classification_cifar10\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinze\Documents\CaptainCandy\classification_cifar10\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72129F39-FE6D-47D4-A8AB-4E896683912C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE565D98-84EC-4A54-B575-F6C28D2533AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN_100iter_loss" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Epoch</t>
-  </si>
-  <si>
-    <t>10s</t>
   </si>
   <si>
     <t>val_loss</t>
@@ -34,27 +41,15 @@
     <t>val_acc</t>
   </si>
   <si>
-    <t>7s</t>
-  </si>
-  <si>
-    <t>24s</t>
-  </si>
-  <si>
-    <t>23s</t>
-  </si>
-  <si>
-    <t>22s</t>
-  </si>
-  <si>
-    <t>Duration</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>train_loss</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>train_acc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration(s)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3331,40 +3326,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1.5582</v>
@@ -3379,12 +3374,12 @@
         <v>0.58660000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1.1382000000000001</v>
@@ -3399,12 +3394,12 @@
         <v>0.6512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0.9869</v>
@@ -3419,12 +3414,12 @@
         <v>0.66979999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0.88749999999999996</v>
@@ -3439,12 +3434,12 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0.82599999999999996</v>
@@ -3459,12 +3454,12 @@
         <v>0.74309999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="B7">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>0.76870000000000005</v>
@@ -3479,12 +3474,12 @@
         <v>0.75280000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0.72819999999999996</v>
@@ -3499,12 +3494,12 @@
         <v>0.73719999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B9">
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0.69669999999999999</v>
@@ -3519,12 +3514,12 @@
         <v>0.75609999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
+      <c r="B10">
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0.66120000000000001</v>
@@ -3539,12 +3534,12 @@
         <v>0.76919999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
+      <c r="B11">
+        <v>24</v>
       </c>
       <c r="C11">
         <v>0.63060000000000005</v>
@@ -3559,12 +3554,12 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B12">
+        <v>23</v>
       </c>
       <c r="C12">
         <v>0.61</v>
@@ -3579,12 +3574,12 @@
         <v>0.76619999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
+      <c r="B13">
+        <v>23</v>
       </c>
       <c r="C13">
         <v>0.58899999999999997</v>
@@ -3599,12 +3594,12 @@
         <v>0.76470000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="B14">
+        <v>23</v>
       </c>
       <c r="C14">
         <v>0.56789999999999996</v>
@@ -3619,12 +3614,12 @@
         <v>0.78120000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="B15">
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0.54969999999999997</v>
@@ -3639,12 +3634,12 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16">
+        <v>23</v>
       </c>
       <c r="C16">
         <v>0.52810000000000001</v>
@@ -3659,12 +3654,12 @@
         <v>0.78390000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
+      <c r="B17">
+        <v>23</v>
       </c>
       <c r="C17">
         <v>0.52259999999999995</v>
@@ -3679,12 +3674,12 @@
         <v>0.7853</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
+      <c r="B18">
+        <v>23</v>
       </c>
       <c r="C18">
         <v>0.504</v>
@@ -3699,12 +3694,12 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
+      <c r="B19">
+        <v>22</v>
       </c>
       <c r="C19">
         <v>0.48659999999999998</v>
@@ -3719,12 +3714,12 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
+      <c r="B20">
+        <v>23</v>
       </c>
       <c r="C20">
         <v>0.48859999999999998</v>
@@ -3739,12 +3734,12 @@
         <v>0.79059999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
+      <c r="B21">
+        <v>22</v>
       </c>
       <c r="C21">
         <v>0.46560000000000001</v>
@@ -3759,12 +3754,12 @@
         <v>0.77329999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
+      <c r="B22">
+        <v>22</v>
       </c>
       <c r="C22">
         <v>0.4667</v>
@@ -3779,12 +3774,12 @@
         <v>0.78990000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
+      <c r="B23">
+        <v>22</v>
       </c>
       <c r="C23">
         <v>0.4516</v>
@@ -3799,12 +3794,12 @@
         <v>0.78869999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
+      <c r="B24">
+        <v>22</v>
       </c>
       <c r="C24">
         <v>0.4456</v>
@@ -3819,12 +3814,12 @@
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
+      <c r="B25">
+        <v>22</v>
       </c>
       <c r="C25">
         <v>0.43430000000000002</v>
@@ -3839,12 +3834,12 @@
         <v>0.79139999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
+      <c r="B26">
+        <v>22</v>
       </c>
       <c r="C26">
         <v>0.43009999999999998</v>
@@ -3859,12 +3854,12 @@
         <v>0.78790000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
+      <c r="B27">
+        <v>22</v>
       </c>
       <c r="C27">
         <v>0.42620000000000002</v>
@@ -3879,12 +3874,12 @@
         <v>0.7923</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
+      <c r="B28">
+        <v>22</v>
       </c>
       <c r="C28">
         <v>0.41439999999999999</v>
@@ -3899,12 +3894,12 @@
         <v>0.79120000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
+      <c r="B29">
+        <v>22</v>
       </c>
       <c r="C29">
         <v>0.40610000000000002</v>
@@ -3919,12 +3914,12 @@
         <v>0.78979999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
+      <c r="B30">
+        <v>22</v>
       </c>
       <c r="C30">
         <v>0.40539999999999998</v>
@@ -3939,12 +3934,12 @@
         <v>0.7883</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
+      <c r="B31">
+        <v>22</v>
       </c>
       <c r="C31">
         <v>0.4017</v>
@@ -3959,12 +3954,12 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
+      <c r="B32">
+        <v>22</v>
       </c>
       <c r="C32">
         <v>0.39479999999999998</v>
@@ -3979,12 +3974,12 @@
         <v>0.78759999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
+      <c r="B33">
+        <v>22</v>
       </c>
       <c r="C33">
         <v>0.38400000000000001</v>
@@ -3999,12 +3994,12 @@
         <v>0.79379999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
+      <c r="B34">
+        <v>22</v>
       </c>
       <c r="C34">
         <v>0.3826</v>
@@ -4019,12 +4014,12 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
+      <c r="B35">
+        <v>22</v>
       </c>
       <c r="C35">
         <v>0.38179999999999997</v>
@@ -4039,12 +4034,12 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
+      <c r="B36">
+        <v>22</v>
       </c>
       <c r="C36">
         <v>0.3695</v>
@@ -4059,12 +4054,12 @@
         <v>0.79630000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
+      <c r="B37">
+        <v>22</v>
       </c>
       <c r="C37">
         <v>0.37059999999999998</v>
@@ -4079,12 +4074,12 @@
         <v>0.79720000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
+      <c r="B38">
+        <v>22</v>
       </c>
       <c r="C38">
         <v>0.3669</v>
@@ -4099,12 +4094,12 @@
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>7</v>
+      <c r="B39">
+        <v>22</v>
       </c>
       <c r="C39">
         <v>0.35570000000000002</v>
@@ -4119,12 +4114,12 @@
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
+      <c r="B40">
+        <v>22</v>
       </c>
       <c r="C40">
         <v>0.36199999999999999</v>
@@ -4139,12 +4134,12 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
+      <c r="B41">
+        <v>22</v>
       </c>
       <c r="C41">
         <v>0.3518</v>
@@ -4159,12 +4154,12 @@
         <v>0.79859999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
+      <c r="B42">
+        <v>22</v>
       </c>
       <c r="C42">
         <v>0.3503</v>
@@ -4179,12 +4174,12 @@
         <v>0.79020000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>7</v>
+      <c r="B43">
+        <v>22</v>
       </c>
       <c r="C43">
         <v>0.34899999999999998</v>
@@ -4199,12 +4194,12 @@
         <v>0.80059999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
+      <c r="B44">
+        <v>22</v>
       </c>
       <c r="C44">
         <v>0.3427</v>
@@ -4219,12 +4214,12 @@
         <v>0.79979999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
+      <c r="B45">
+        <v>22</v>
       </c>
       <c r="C45">
         <v>0.3387</v>
@@ -4239,12 +4234,12 @@
         <v>0.80289999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
+      <c r="B46">
+        <v>22</v>
       </c>
       <c r="C46">
         <v>0.34260000000000002</v>
@@ -4259,12 +4254,12 @@
         <v>0.7994</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>7</v>
+      <c r="B47">
+        <v>22</v>
       </c>
       <c r="C47">
         <v>0.33600000000000002</v>
@@ -4279,12 +4274,12 @@
         <v>0.79479999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
+      <c r="B48">
+        <v>23</v>
       </c>
       <c r="C48">
         <v>0.3387</v>
@@ -4299,12 +4294,12 @@
         <v>0.79769999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
+      <c r="B49">
+        <v>22</v>
       </c>
       <c r="C49">
         <v>0.33429999999999999</v>
@@ -4319,12 +4314,12 @@
         <v>0.79879999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
+      <c r="B50">
+        <v>22</v>
       </c>
       <c r="C50">
         <v>0.33479999999999999</v>
@@ -4339,12 +4334,12 @@
         <v>0.78920000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
+      <c r="B51">
+        <v>22</v>
       </c>
       <c r="C51">
         <v>0.33129999999999998</v>
@@ -4359,12 +4354,12 @@
         <v>0.79779999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
+      <c r="B52">
+        <v>22</v>
       </c>
       <c r="C52">
         <v>0.3261</v>
@@ -4379,12 +4374,12 @@
         <v>0.79679999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
+      <c r="B53">
+        <v>22</v>
       </c>
       <c r="C53">
         <v>0.32619999999999999</v>
@@ -4399,12 +4394,12 @@
         <v>0.79369999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
+      <c r="B54">
+        <v>22</v>
       </c>
       <c r="C54">
         <v>0.32729999999999998</v>
@@ -4419,12 +4414,12 @@
         <v>0.7994</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
+      <c r="B55">
+        <v>22</v>
       </c>
       <c r="C55">
         <v>0.31730000000000003</v>
@@ -4439,12 +4434,12 @@
         <v>0.79710000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
+      <c r="B56">
+        <v>22</v>
       </c>
       <c r="C56">
         <v>0.31879999999999997</v>
@@ -4459,12 +4454,12 @@
         <v>0.80230000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
+      <c r="B57">
+        <v>22</v>
       </c>
       <c r="C57">
         <v>0.315</v>
@@ -4479,12 +4474,12 @@
         <v>0.7984</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
+      <c r="B58">
+        <v>22</v>
       </c>
       <c r="C58">
         <v>0.30819999999999997</v>
@@ -4499,12 +4494,12 @@
         <v>0.79490000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
+      <c r="B59">
+        <v>22</v>
       </c>
       <c r="C59">
         <v>0.31969999999999998</v>
@@ -4519,12 +4514,12 @@
         <v>0.80689999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>7</v>
+      <c r="B60">
+        <v>22</v>
       </c>
       <c r="C60">
         <v>0.30780000000000002</v>
@@ -4539,12 +4534,12 @@
         <v>0.79820000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>7</v>
+      <c r="B61">
+        <v>22</v>
       </c>
       <c r="C61">
         <v>0.30480000000000002</v>
@@ -4559,12 +4554,12 @@
         <v>0.79810000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
+      <c r="B62">
+        <v>22</v>
       </c>
       <c r="C62">
         <v>0.30580000000000002</v>
@@ -4579,12 +4574,12 @@
         <v>0.80210000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
+      <c r="B63">
+        <v>22</v>
       </c>
       <c r="C63">
         <v>0.31080000000000002</v>
@@ -4599,12 +4594,12 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
+      <c r="B64">
+        <v>23</v>
       </c>
       <c r="C64">
         <v>0.31359999999999999</v>
@@ -4619,12 +4614,12 @@
         <v>0.80149999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
+      <c r="B65">
+        <v>22</v>
       </c>
       <c r="C65">
         <v>0.30659999999999998</v>
@@ -4639,12 +4634,12 @@
         <v>0.79959999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
+      <c r="B66">
+        <v>22</v>
       </c>
       <c r="C66">
         <v>0.30220000000000002</v>
@@ -4659,12 +4654,12 @@
         <v>0.80189999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
+      <c r="B67">
+        <v>22</v>
       </c>
       <c r="C67">
         <v>0.29609999999999997</v>
@@ -4679,12 +4674,12 @@
         <v>0.79949999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
+      <c r="B68">
+        <v>22</v>
       </c>
       <c r="C68">
         <v>0.29859999999999998</v>
@@ -4699,12 +4694,12 @@
         <v>0.80810000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
+      <c r="B69">
+        <v>22</v>
       </c>
       <c r="C69">
         <v>0.29909999999999998</v>
@@ -4719,12 +4714,12 @@
         <v>0.80059999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>7</v>
+      <c r="B70">
+        <v>22</v>
       </c>
       <c r="C70">
         <v>0.29599999999999999</v>
@@ -4739,12 +4734,12 @@
         <v>0.79769999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
+      <c r="B71">
+        <v>23</v>
       </c>
       <c r="C71">
         <v>0.29949999999999999</v>
@@ -4759,12 +4754,12 @@
         <v>0.80349999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
+      <c r="B72">
+        <v>23</v>
       </c>
       <c r="C72">
         <v>0.29370000000000002</v>
@@ -4779,12 +4774,12 @@
         <v>0.79779999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
+      <c r="B73">
+        <v>23</v>
       </c>
       <c r="C73">
         <v>0.29920000000000002</v>
@@ -4799,12 +4794,12 @@
         <v>0.79869999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
+      <c r="B74">
+        <v>23</v>
       </c>
       <c r="C74">
         <v>0.29099999999999998</v>
@@ -4819,12 +4814,12 @@
         <v>0.79720000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
+      <c r="B75">
+        <v>23</v>
       </c>
       <c r="C75">
         <v>0.28570000000000001</v>
@@ -4839,12 +4834,12 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
+      <c r="B76">
+        <v>23</v>
       </c>
       <c r="C76">
         <v>0.2903</v>
@@ -4859,12 +4854,12 @@
         <v>0.79649999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>6</v>
+      <c r="B77">
+        <v>23</v>
       </c>
       <c r="C77">
         <v>0.28320000000000001</v>
@@ -4879,12 +4874,12 @@
         <v>0.79820000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>6</v>
+      <c r="B78">
+        <v>23</v>
       </c>
       <c r="C78">
         <v>0.28439999999999999</v>
@@ -4899,12 +4894,12 @@
         <v>0.79849999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
+      <c r="B79">
+        <v>23</v>
       </c>
       <c r="C79">
         <v>0.28010000000000002</v>
@@ -4919,12 +4914,12 @@
         <v>0.79710000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
+      <c r="B80">
+        <v>23</v>
       </c>
       <c r="C80">
         <v>0.28620000000000001</v>
@@ -4939,12 +4934,12 @@
         <v>0.80430000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>6</v>
+      <c r="B81">
+        <v>23</v>
       </c>
       <c r="C81">
         <v>0.28520000000000001</v>
@@ -4959,12 +4954,12 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
+      <c r="B82">
+        <v>22</v>
       </c>
       <c r="C82">
         <v>0.28110000000000002</v>
@@ -4979,12 +4974,12 @@
         <v>0.79620000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>6</v>
+      <c r="B83">
+        <v>23</v>
       </c>
       <c r="C83">
         <v>0.28210000000000002</v>
@@ -4999,12 +4994,12 @@
         <v>0.8034</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
+      <c r="B84">
+        <v>23</v>
       </c>
       <c r="C84">
         <v>0.27550000000000002</v>
@@ -5019,12 +5014,12 @@
         <v>0.80549999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
+      <c r="B85">
+        <v>22</v>
       </c>
       <c r="C85">
         <v>0.2863</v>
@@ -5039,12 +5034,12 @@
         <v>0.80230000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
+      <c r="B86">
+        <v>22</v>
       </c>
       <c r="C86">
         <v>0.27739999999999998</v>
@@ -5059,12 +5054,12 @@
         <v>0.80430000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
+      <c r="B87">
+        <v>22</v>
       </c>
       <c r="C87">
         <v>0.27710000000000001</v>
@@ -5079,12 +5074,12 @@
         <v>0.79859999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
+      <c r="B88">
+        <v>22</v>
       </c>
       <c r="C88">
         <v>0.28239999999999998</v>
@@ -5099,12 +5094,12 @@
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
+      <c r="B89">
+        <v>22</v>
       </c>
       <c r="C89">
         <v>0.28110000000000002</v>
@@ -5119,12 +5114,12 @@
         <v>0.79810000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
+      <c r="B90">
+        <v>22</v>
       </c>
       <c r="C90">
         <v>0.2732</v>
@@ -5139,12 +5134,12 @@
         <v>0.80279999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
+      <c r="B91">
+        <v>22</v>
       </c>
       <c r="C91">
         <v>0.27029999999999998</v>
@@ -5159,12 +5154,12 @@
         <v>0.79849999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
+      <c r="B92">
+        <v>22</v>
       </c>
       <c r="C92">
         <v>0.27100000000000002</v>
@@ -5179,12 +5174,12 @@
         <v>0.79649999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
+      <c r="B93">
+        <v>22</v>
       </c>
       <c r="C93">
         <v>0.2772</v>
@@ -5199,12 +5194,12 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
+      <c r="B94">
+        <v>22</v>
       </c>
       <c r="C94">
         <v>0.2732</v>
@@ -5219,12 +5214,12 @@
         <v>0.79530000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
+      <c r="B95">
+        <v>23</v>
       </c>
       <c r="C95">
         <v>0.2772</v>
@@ -5239,12 +5234,12 @@
         <v>0.80169999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
+      <c r="B96">
+        <v>22</v>
       </c>
       <c r="C96">
         <v>0.27800000000000002</v>
@@ -5259,12 +5254,12 @@
         <v>0.8024</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
+      <c r="B97">
+        <v>22</v>
       </c>
       <c r="C97">
         <v>0.25879999999999997</v>
@@ -5279,12 +5274,12 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
+      <c r="B98">
+        <v>22</v>
       </c>
       <c r="C98">
         <v>0.2661</v>
@@ -5299,12 +5294,12 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
+      <c r="B99">
+        <v>22</v>
       </c>
       <c r="C99">
         <v>0.26550000000000001</v>
@@ -5319,12 +5314,12 @@
         <v>0.80079999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
+      <c r="B100">
+        <v>22</v>
       </c>
       <c r="C100">
         <v>0.26650000000000001</v>
@@ -5339,12 +5334,12 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
+      <c r="B101">
+        <v>22</v>
       </c>
       <c r="C101">
         <v>0.26669999999999999</v>
@@ -5357,6 +5352,12 @@
       </c>
       <c r="F101">
         <v>0.80269999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B102">
+        <f>SUM(B2:B101)</f>
+        <v>2094</v>
       </c>
     </row>
   </sheetData>

--- a/model/CNN_100iter_loss_without_lr_scheduler.xlsx
+++ b/model/CNN_100iter_loss_without_lr_scheduler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinze\Documents\CaptainCandy\classification_cifar10\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZJUSO\Documents\CaptainCandy\classification_cifar10\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE565D98-84EC-4A54-B575-F6C28D2533AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3492E869-D02F-449B-BE2A-7AE20287A07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN_100iter_loss" sheetId="1" r:id="rId1"/>
@@ -3328,13 +3328,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>0.58660000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0.6512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0.66979999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0.74309999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>0.75280000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0.73719999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0.75609999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0.76919999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0.76619999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0.76470000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0.78120000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0.78390000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0.7853</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0.79059999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0.77329999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0.78990000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0.78869999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0.79139999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0.78790000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0.7923</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>0.79120000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0.78979999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0.7883</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0.78759999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0.79379999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0.79630000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>0.79720000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0.79859999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0.79020000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0.80059999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>0.79979999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0.80289999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0.7994</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0.79479999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>0.79769999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>0.79879999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0.78920000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0.79779999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>0.79679999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0.79369999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0.7994</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0.79710000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0.80230000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0.7984</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0.79490000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0.80689999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>0.79820000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0.79810000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0.80210000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>0.80149999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>0.79959999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>0.80189999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>0.79949999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0.80810000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0.80059999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0.79769999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>0.80349999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>0.79779999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>0.79869999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>0.79720000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>0.79649999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>0.79820000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0.79849999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0.79710000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>0.80430000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>0.79620000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>0.8034</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>0.80549999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>0.80230000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>0.80430000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>0.79859999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>0.79810000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>0.80279999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>0.79849999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>0.79649999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0.79530000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0.80169999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>0.8024</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>0.80079999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0.80269999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B102">
         <f>SUM(B2:B101)</f>
         <v>2094</v>
